--- a/Large Instances 1,5/Large1,1.5.xlsx
+++ b/Large Instances 1,5/Large1,1.5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacobni\SamkjøringKode\samkjoring2022\Large Instances 1,5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Large Instances 1,5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4122A0-21C4-44FF-8DC6-FB4974F1B799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75324248-CD80-4FDF-8B6A-31B7DAFEE374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <sheet name="Reisetider" sheetId="3" r:id="rId11"/>
     <sheet name="Koordinater" sheetId="4" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M34"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1177,50 +1177,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">INDEX($W$3:$W$126,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Knarrevik</v>
+        <v>Rongøy</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>5.1530250000000004</v>
+        <v>4.9155160000000002</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.507615999999999</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="0">C2*111.021</f>
-        <v>572.0939885250001</v>
+        <v>545.72550183600003</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6717.6160359360001</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G34" ca="1" si="1">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="2">H2*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>22.5</v>
+        <v>66</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1251,23 +1251,23 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B34" ca="1" si="3">INDEX($W$3:$W$126,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C34" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D34" ca="1" si="5">_xlfn.XLOOKUP(B3,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>49.5</v>
+        <v>36</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1327,50 +1327,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Tofterøy</v>
+        <v>Solsvik</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0525099999999998</v>
+        <v>4.9664089999999996</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.185890000000001</v>
+        <v>60.431001999999999</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>560.93471270999999</v>
+        <v>551.37569358899998</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6681.8976936899999</v>
+        <v>6709.1102730419998</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1400,23 +1400,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Solsvik</v>
+        <v>Kleppe</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9664089999999996</v>
+        <v>5.1359649999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.431001999999999</v>
+        <v>60.187809999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>551.37569358899998</v>
+        <v>570.19997026499993</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6709.1102730419998</v>
+        <v>6682.1108540100004</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>48</v>
+        <v>25.5</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1473,50 +1473,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Spjeld</v>
+        <v>Kleppe</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1359649999999997</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.187809999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>570.19997026499993</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6682.1108540100004</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>42</v>
+        <v>37.5</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1546,50 +1546,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hjelteryggen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1544819999999998</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.381360999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.25574612200001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.5990795810003</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -1610,50 +1610,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Skogsvåg</v>
+        <v>Kleppe</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0971859999999998</v>
+        <v>5.1359649999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.25994</v>
+        <v>60.187809999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>565.89468690599995</v>
+        <v>570.19997026499993</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.1187987399999</v>
+        <v>6682.1108540100004</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ref="H8:H34" ca="1" si="9">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ref="I8:I31" ca="1" si="10">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>49.5</v>
+        <v>36</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -1674,23 +1674,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arefjord</v>
+        <v>Ebbesvika</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1424630000000002</v>
+        <v>5.1401279999999998</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.358854999999998</v>
+        <v>60.336067999999997</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ref="E9:E11" ca="1" si="11">C9*111.021</f>
-        <v>570.92138472300007</v>
+        <v>570.662150688</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ref="F9:F11" ca="1" si="12">D9*111.021</f>
-        <v>6701.1004409549996</v>
+        <v>6698.5706054279999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>33</v>
+        <v>40.5</v>
       </c>
       <c r="N9" s="2">
         <v>4</v>
@@ -1738,50 +1738,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Telavåg</v>
+        <v>Vorland</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0677450000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.227445000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>553.10906446199999</v>
+        <v>562.62611764500002</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6690.2990968439999</v>
+        <v>6686.5111713450005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ref="H10:H11" ca="1" si="15">_xlfn.XLOOKUP(G10,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ref="I10:I11" ca="1" si="16">_xlfn.XLOOKUP(G10,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="N10" s="2">
         <v>4</v>
@@ -1802,23 +1802,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arefjord</v>
+        <v>Telavåg</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1424630000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.358854999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>570.92138472300007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6701.1004409549996</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>22.5</v>
+        <v>60</v>
       </c>
       <c r="N11" s="2">
         <v>4</v>
@@ -1867,23 +1867,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kleppe</v>
+        <v>Rongøy</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1359649999999997</v>
+        <v>4.9155160000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.187809999999999</v>
+        <v>60.507615999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.19997026499993</v>
+        <v>545.72550183600003</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6682.1108540100004</v>
+        <v>6717.6160359360001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>37.5</v>
+        <v>67.5</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1931,50 +1931,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Rongøy</v>
+        <v>Ebbesvika</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9155160000000002</v>
+        <v>5.1401279999999998</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.507615999999999</v>
+        <v>60.336067999999997</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>545.72550183600003</v>
+        <v>570.662150688</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6717.6160359360001</v>
+        <v>6698.5706054279999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="Q13" t="s">
         <v>26</v>
@@ -1999,23 +1999,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vågo</v>
+        <v>Rongøy</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1245659999999997</v>
+        <v>4.9155160000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388821</v>
+        <v>60.507615999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.93444188599995</v>
+        <v>545.72550183600003</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4272962410005</v>
+        <v>6717.6160359360001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>31.5</v>
+        <v>55.5</v>
       </c>
       <c r="Q14" t="s">
         <v>14</v>
@@ -2087,30 +2087,30 @@
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>42</v>
+        <v>40.5</v>
       </c>
       <c r="W15" t="s">
         <v>46</v>
@@ -2128,50 +2128,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Knappskog</v>
+        <v>Vågo</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1245659999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.388821</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.93444188599995</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4272962410005</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>40.5</v>
+        <v>31.5</v>
       </c>
       <c r="W16" t="s">
         <v>47</v>
@@ -2189,23 +2189,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hellesøy</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.7908670000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.661020999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>531.88684520700008</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6734.6472124410002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2232,7 +2232,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>103.5</v>
+        <v>49.5</v>
       </c>
       <c r="W17" t="s">
         <v>48</v>
@@ -2250,50 +2250,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hammersland</v>
+        <v>Vågo</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0687990000000003</v>
+        <v>5.1245659999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.259569999999997</v>
+        <v>60.388821</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F33" ca="1" si="17">C18*111.021</f>
-        <v>562.743133779</v>
+        <v>568.93444188599995</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6690.07772097</v>
+        <v>6704.4272962410005</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K33" ca="1" si="18">H18*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>51</v>
+        <v>31.5</v>
       </c>
       <c r="W18" t="s">
         <v>49</v>
@@ -2311,23 +2311,23 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Bildøyna</v>
+        <v>Hammersland</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0687990000000003</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.259569999999997</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>566.88266278499998</v>
+        <v>562.743133779</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6700.5708707849999</v>
+        <v>6690.07772097</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>22.5</v>
+        <v>45</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -2385,50 +2385,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arefjord</v>
+        <v>Hammersland</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1424630000000002</v>
+        <v>5.0687990000000003</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.358854999999998</v>
+        <v>60.259569999999997</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>570.92138472300007</v>
+        <v>562.743133779</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.1004409549996</v>
+        <v>6690.07772097</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>22.5</v>
+        <v>57</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -2461,50 +2461,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Knarrevik</v>
+        <v>Vågo</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1245659999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.388821</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>572.0939885250001</v>
+        <v>568.93444188599995</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4272962410005</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>22.5</v>
+        <v>42</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -2537,23 +2537,23 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>49.5</v>
+        <v>40.5</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -2614,50 +2614,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Bildøyna</v>
+        <v>Blomøy</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.8927480000000001</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.538108000000001</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>566.88266278499998</v>
+        <v>543.19777570799999</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6700.5708707849999</v>
+        <v>6721.0012882680003</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>34.5</v>
+        <v>64.5</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -2691,50 +2691,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vorland</v>
+        <v>Landro</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0677450000000004</v>
+        <v>4.9672090000000004</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.227445000000003</v>
+        <v>60.423364999999997</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>562.62611764500002</v>
+        <v>551.464510389</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6686.5111713450005</v>
+        <v>6708.2624056649993</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -2768,23 +2768,23 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Blomøy</v>
+        <v>Arefjord</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8927480000000001</v>
+        <v>5.1424630000000002</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.538108000000001</v>
+        <v>60.358854999999998</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>543.19777570799999</v>
+        <v>570.92138472300007</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6721.0012882680003</v>
+        <v>6701.1004409549996</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>64.5</v>
+        <v>22.5</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -2847,23 +2847,23 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Arefjord</v>
+        <v>Rongøy</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1424630000000002</v>
+        <v>4.9155160000000002</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.358854999999998</v>
+        <v>60.507615999999999</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>570.92138472300007</v>
+        <v>545.72550183600003</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.1004409549996</v>
+        <v>6717.6160359360001</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>22.5</v>
+        <v>55.5</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -2926,23 +2926,23 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>70.5</v>
+        <v>33</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -2996,50 +2996,50 @@
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hjelteryggen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1544819999999998</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.381360999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>572.25574612200001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.5990795810003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I28" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>31.5</v>
+        <v>34.5</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -3066,50 +3066,50 @@
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Tofterøy</v>
+        <v>Foldnes</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0525099999999998</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.185890000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>560.93471270999999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6681.8976936899999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I29" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J29" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -3226,30 +3226,30 @@
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>34.5</v>
+        <v>33</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -3276,50 +3276,50 @@
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G32" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H32" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I32" s="63">
         <f t="shared" ref="I32:I34" ca="1" si="22">_xlfn.XLOOKUP(G32,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J32" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K32" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M32" s="3" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">_xlfn.XLOOKUP(B32,$R$20:$R$47,_xlfn.XLOOKUP(G32,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>49.5</v>
+        <v>22.5</v>
       </c>
       <c r="R32" s="58" t="s">
         <v>49</v>
@@ -3346,50 +3346,50 @@
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F33" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G33" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H33" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I33" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J33" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K33" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M33" s="3" cm="1">
         <f t="array" aca="1" ref="M33" ca="1">_xlfn.XLOOKUP(B33,$R$20:$R$47,_xlfn.XLOOKUP(G33,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>49.5</v>
+        <v>31.5</v>
       </c>
       <c r="R33" s="58" t="s">
         <v>35</v>
@@ -3416,50 +3416,50 @@
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Blomøy</v>
+        <v>Tofterøy</v>
       </c>
       <c r="C34" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8927480000000001</v>
+        <v>5.0525099999999998</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.538108000000001</v>
+        <v>60.185890000000001</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" ref="E34" ca="1" si="23">C34*111.021</f>
-        <v>543.19777570799999</v>
+        <v>560.93471270999999</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" ref="F34" ca="1" si="24">D34*111.021</f>
-        <v>6721.0012882680003</v>
+        <v>6681.8976936899999</v>
       </c>
       <c r="G34" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H34" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I34" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J34" s="8">
         <f t="shared" ref="J34" ca="1" si="25">H34*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K34" s="8">
         <f t="shared" ref="K34" ca="1" si="26">I34*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M34" s="3" cm="1">
         <f t="array" aca="1" ref="M34" ca="1">_xlfn.XLOOKUP(B34,$R$20:$R$47,_xlfn.XLOOKUP(G34,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>70.5</v>
+        <v>78</v>
       </c>
       <c r="R34" s="58" t="s">
         <v>50</v>
@@ -3503,7 +3503,7 @@
         <v>21</v>
       </c>
       <c r="U35" s="40">
-        <f t="shared" si="20"/>
+        <f>S35+4</f>
         <v>18</v>
       </c>
       <c r="V35" s="35">
@@ -4980,23 +4980,23 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B9" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -5054,23 +5054,23 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -5130,23 +5130,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -5203,50 +5203,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H6" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I6" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -5276,43 +5276,43 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="9"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
@@ -5349,50 +5349,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D7" s="4">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -5413,50 +5413,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:C31" ca="1" si="10">_xlfn.XLOOKUP(B8,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ref="D8:D27" ca="1" si="11">_xlfn.XLOOKUP(B8,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ref="H8:H31" ca="1" si="12">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ref="I8:I27" ca="1" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -5477,50 +5477,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G31" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5538,50 +5538,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ref="B10:B31" ca="1" si="15">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5619,30 +5619,30 @@
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -5661,23 +5661,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -5704,7 +5704,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -5725,50 +5725,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5777,50 +5777,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -5829,50 +5829,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -5881,50 +5881,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -5933,23 +5933,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -5985,50 +5985,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F31" ca="1" si="16">C18*111.021</f>
-        <v>566.93628592800007</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K31" ca="1" si="17">H18*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -6037,50 +6037,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -6102,50 +6102,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -6236,50 +6236,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -6309,23 +6309,23 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -6382,50 +6382,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -6476,30 +6476,30 @@
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -6526,50 +6526,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -6596,50 +6596,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -6666,23 +6666,23 @@
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ref="D28:D31" ca="1" si="21">_xlfn.XLOOKUP(B28,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -6736,23 +6736,23 @@
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.375988</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -6806,50 +6806,50 @@
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Spjeld</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.368082999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I30" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -6876,50 +6876,50 @@
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -7987,50 +7987,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8048,50 +8048,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8110,43 +8110,43 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
@@ -8174,50 +8174,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8226,50 +8226,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8278,50 +8278,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8330,23 +8330,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8373,7 +8373,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8382,23 +8382,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8425,7 +8425,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8434,50 +8434,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K27" ca="1" si="17">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -8486,50 +8486,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -8551,50 +8551,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -8618,50 +8618,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -8685,23 +8685,23 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8728,7 +8728,7 @@
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -8778,30 +8778,30 @@
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -8831,50 +8831,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -8905,23 +8905,23 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8948,7 +8948,7 @@
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -8975,50 +8975,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -9045,50 +9045,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ref="D27" ca="1" si="21">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ref="I27" ca="1" si="22">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -10078,23 +10078,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10139,50 +10139,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10200,23 +10200,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10243,7 +10243,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10261,50 +10261,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10322,50 +10322,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10384,50 +10384,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -10448,50 +10448,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10500,50 +10500,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10552,43 +10552,43 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
@@ -10604,50 +10604,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10656,50 +10656,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10708,50 +10708,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -10760,50 +10760,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -10825,50 +10825,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -10912,30 +10912,30 @@
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -10959,23 +10959,23 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>554.37814551299994</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -11002,7 +11002,7 @@
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -11032,50 +11032,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -11105,50 +11105,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -11179,23 +11179,23 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -11222,7 +11222,7 @@
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -11269,30 +11269,30 @@
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -12310,50 +12310,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -12371,50 +12371,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -12432,50 +12432,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -12493,50 +12493,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12554,23 +12554,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -12616,50 +12616,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -12680,43 +12680,43 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
@@ -12732,23 +12732,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -12775,7 +12775,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12784,50 +12784,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12836,23 +12836,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -12879,7 +12879,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -12888,23 +12888,23 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -12940,50 +12940,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -13012,30 +13012,30 @@
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -14248,50 +14248,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -14309,50 +14309,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -14370,43 +14370,43 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
@@ -14431,50 +14431,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -14492,23 +14492,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -14535,7 +14535,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -14554,50 +14554,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -14618,50 +14618,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14670,50 +14670,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -14722,50 +14722,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.261564</v>
+        <v>60.354616</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>553.10906446199999</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6690.2990968439999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -15918,50 +15918,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Foldnes</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1065680000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.375988</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I11" ca="1" si="11">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -15988,50 +15988,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -16058,50 +16058,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -16119,50 +16119,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -16180,50 +16180,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -16241,50 +16241,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -16302,50 +16302,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -16364,50 +16364,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ref="I12:I13" ca="1" si="16">_xlfn.XLOOKUP(G12,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ref="J12:J13" ca="1" si="17">H12*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ref="K12:K13" ca="1" si="18">I12*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -17521,50 +17521,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -17591,50 +17591,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.375988</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -17661,23 +17661,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -17704,7 +17704,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -17731,50 +17731,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -17792,23 +17792,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -17835,7 +17835,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -17853,23 +17853,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -17896,7 +17896,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -17914,50 +17914,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -17975,23 +17975,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -18018,7 +18018,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -19103,50 +19103,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -19173,50 +19173,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -19243,50 +19243,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/Large Instances 1,5/Large1,1.5.xlsx
+++ b/Large Instances 1,5/Large1,1.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shusheny\samkjoring2022\Large Instances 1,5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75324248-CD80-4FDF-8B6A-31B7DAFEE374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BEDC13-F419-46CA-BE0F-F68FAC7CAB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="1965" windowWidth="19755" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Large1" sheetId="15" r:id="rId1"/>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:AB932"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1177,50 +1177,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f ca="1">INDEX($W$3:$W$126,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Rongøy</v>
+        <v>Knappskog</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>4.9155160000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.507615999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="0">C2*111.021</f>
-        <v>545.72550183600003</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6717.6160359360001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G34" ca="1" si="1">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="2">H2*111.021</f>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>66</v>
+        <v>37.5</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1251,50 +1251,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B34" ca="1" si="3">INDEX($W$3:$W$126,RANDBETWEEN(1,ROWS($W$3:$W$26)),1)</f>
-        <v>Brattholmen</v>
+        <v>Vorland</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C34" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$26,$X$3:$X$26,0)</f>
-        <v>5.1522740000000002</v>
+        <v>5.0677450000000004</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D34" ca="1" si="5">_xlfn.XLOOKUP(B3,$W$3:$W$26,$Y$3:$Y$26,0)</f>
-        <v>60.354616</v>
+        <v>60.227445000000003</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>562.62611764500002</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6686.5111713450005</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3" ca="1" si="6">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1327,50 +1327,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Solsvik</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9664089999999996</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.431001999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>551.37569358899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6709.1102730419998</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>60</v>
+        <v>34.5</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -1400,50 +1400,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kleppe</v>
+        <v>Arefjord</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1359649999999997</v>
+        <v>5.1424630000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.187809999999999</v>
+        <v>60.358854999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.19997026499993</v>
+        <v>570.92138472300007</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6682.1108540100004</v>
+        <v>6701.1004409549996</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H6" ca="1" si="7">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I6" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>25.5</v>
+        <v>33</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -1473,50 +1473,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kleppe</v>
+        <v>Skogsvåg</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1359649999999997</v>
+        <v>5.0971859999999998</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.187809999999999</v>
+        <v>60.25994</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.19997026499993</v>
+        <v>565.89468690599995</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6682.1108540100004</v>
+        <v>6690.1187987399999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="8"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>37.5</v>
+        <v>55.5</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -1546,50 +1546,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -1610,23 +1610,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kleppe</v>
+        <v>Landro</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1359649999999997</v>
+        <v>4.9672090000000004</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.187809999999999</v>
+        <v>60.423364999999997</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.19997026499993</v>
+        <v>551.464510389</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6682.1108540100004</v>
+        <v>6708.2624056649993</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -1674,50 +1674,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ebbesvika</v>
+        <v>Solsvik</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1401279999999998</v>
+        <v>4.9664089999999996</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.336067999999997</v>
+        <v>60.431001999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ref="E9:E11" ca="1" si="11">C9*111.021</f>
-        <v>570.662150688</v>
+        <v>551.37569358899998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ref="F9:F11" ca="1" si="12">D9*111.021</f>
-        <v>6698.5706054279999</v>
+        <v>6709.1102730419998</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f ca="1">_xlfn.XLOOKUP(G9,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f ca="1">_xlfn.XLOOKUP(G9,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ref="J9:J11" ca="1" si="13">H9*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ref="K9:K11" ca="1" si="14">I9*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>40.5</v>
+        <v>48</v>
       </c>
       <c r="N9" s="2">
         <v>4</v>
@@ -1738,50 +1738,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vorland</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0677450000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.227445000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>562.62611764500002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6686.5111713450005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ref="H10:H11" ca="1" si="15">_xlfn.XLOOKUP(G10,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ref="I10:I11" ca="1" si="16">_xlfn.XLOOKUP(G10,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N10" s="2">
         <v>4</v>
@@ -1802,50 +1802,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Telavåg</v>
+        <v>Hjelteryggen</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1544819999999998</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.381360999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>553.10906446199999</v>
+        <v>572.25574612200001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6690.2990968439999</v>
+        <v>6703.5990795810003</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="15"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="N11" s="2">
         <v>4</v>
@@ -1867,23 +1867,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Rongøy</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9155160000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.507615999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>545.72550183600003</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6717.6160359360001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>67.5</v>
+        <v>28.5</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -1931,50 +1931,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ebbesvika</v>
+        <v>Hjelteryggen</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1401279999999998</v>
+        <v>5.1544819999999998</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.336067999999997</v>
+        <v>60.381360999999998</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.662150688</v>
+        <v>572.25574612200001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6698.5706054279999</v>
+        <v>6703.5990795810003</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>36</v>
+        <v>31.5</v>
       </c>
       <c r="Q13" t="s">
         <v>26</v>
@@ -1999,50 +1999,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Rongøy</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9155160000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.507615999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>545.72550183600003</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6717.6160359360001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>55.5</v>
+        <v>40.5</v>
       </c>
       <c r="Q14" t="s">
         <v>14</v>
@@ -2067,50 +2067,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Ebbesvika</v>
+        <v>Arefjord</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1401279999999998</v>
+        <v>5.1424630000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.336067999999997</v>
+        <v>60.358854999999998</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>570.662150688</v>
+        <v>570.92138472300007</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6698.5706054279999</v>
+        <v>6701.1004409549996</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>40.5</v>
+        <v>22.5</v>
       </c>
       <c r="W15" t="s">
         <v>46</v>
@@ -2128,50 +2128,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vågo</v>
+        <v>Foldnes</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1245659999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388821</v>
+        <v>60.375988</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.93444188599995</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4272962410005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>31.5</v>
+        <v>40.5</v>
       </c>
       <c r="W16" t="s">
         <v>47</v>
@@ -2189,50 +2189,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Kårtveit</v>
+        <v>Tofterøy</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0525099999999998</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.185890000000001</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>560.93471270999999</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6681.8976936899999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>49.5</v>
+        <v>72</v>
       </c>
       <c r="W17" t="s">
         <v>48</v>
@@ -2250,50 +2250,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vågo</v>
+        <v>Knappskog</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1245659999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388821</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F33" ca="1" si="17">C18*111.021</f>
-        <v>568.93444188599995</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6704.4272962410005</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K33" ca="1" si="18">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>31.5</v>
+        <v>37.5</v>
       </c>
       <c r="W18" t="s">
         <v>49</v>
@@ -2311,23 +2311,23 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hammersland</v>
+        <v>Straume</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0687990000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.259569999999997</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>562.743133779</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6690.07772097</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>45</v>
+        <v>22.5</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -2385,50 +2385,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Hammersland</v>
+        <v>Arefjord</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0687990000000003</v>
+        <v>5.1424630000000002</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.259569999999997</v>
+        <v>60.358854999999998</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>562.743133779</v>
+        <v>570.92138472300007</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6690.07772097</v>
+        <v>6701.1004409549996</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>57</v>
+        <v>22.5</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -2461,50 +2461,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Vågo</v>
+        <v>Landro</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1245659999999997</v>
+        <v>4.9672090000000004</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388821</v>
+        <v>60.423364999999997</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>568.93444188599995</v>
+        <v>551.464510389</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6704.4272962410005</v>
+        <v>6708.2624056649993</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>42</v>
+        <v>49.5</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -2537,50 +2537,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Knappskog</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>561.31429350899998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.7674984380001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>40.5</v>
+        <v>25.5</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -2614,50 +2614,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Blomøy</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8927480000000001</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.538108000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>543.19777570799999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6721.0012882680003</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>64.5</v>
+        <v>28.5</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -2691,50 +2691,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Landro</v>
+        <v>Rongøy</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9672090000000004</v>
+        <v>4.9155160000000002</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.423364999999997</v>
+        <v>60.507615999999999</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>551.464510389</v>
+        <v>545.72550183600003</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6708.2624056649993</v>
+        <v>6717.6160359360001</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>54</v>
+        <v>67.5</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -2788,30 +2788,30 @@
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>22.5</v>
+        <v>33</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -2847,50 +2847,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Rongøy</v>
+        <v>Spjeld</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9155160000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.507615999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>545.72550183600003</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6717.6160359360001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>55.5</v>
+        <v>42</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -2926,50 +2926,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -2996,50 +2996,50 @@
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Bildøyna</v>
+        <v>Kleppe</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1359649999999997</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.187809999999999</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>566.88266278499998</v>
+        <v>570.19997026499993</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6700.5708707849999</v>
+        <v>6682.1108540100004</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I28" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>34.5</v>
+        <v>31.5</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -3066,50 +3066,50 @@
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Foldnes</v>
+        <v>Vågo</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1245659999999997</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.388821</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>566.93628592800007</v>
+        <v>568.93444188599995</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.0025637480003</v>
+        <v>6704.4272962410005</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I29" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J29" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -3136,50 +3136,50 @@
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Knappskog</v>
+        <v>Skogsvåg</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0971859999999998</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.25994</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>561.31429350899998</v>
+        <v>565.89468690599995</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.7674984380001</v>
+        <v>6690.1187987399999</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I30" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J30" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>37.5</v>
+        <v>60</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -3206,50 +3206,50 @@
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I31" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>33</v>
+        <v>28.5</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -3276,50 +3276,50 @@
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G32" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H32" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I32" s="63">
         <f t="shared" ref="I32:I34" ca="1" si="22">_xlfn.XLOOKUP(G32,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J32" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K32" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M32" s="3" cm="1">
         <f t="array" aca="1" ref="M32" ca="1">_xlfn.XLOOKUP(B32,$R$20:$R$47,_xlfn.XLOOKUP(G32,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>22.5</v>
+        <v>28.5</v>
       </c>
       <c r="R32" s="58" t="s">
         <v>49</v>
@@ -3346,23 +3346,23 @@
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Brattholmen</v>
+        <v>Blomøy</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.8927480000000001</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.538108000000001</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>572.01061175400002</v>
+        <v>543.19777570799999</v>
       </c>
       <c r="F33" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>6700.629822936</v>
+        <v>6721.0012882680003</v>
       </c>
       <c r="G33" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="M33" s="3" cm="1">
         <f t="array" aca="1" ref="M33" ca="1">_xlfn.XLOOKUP(B33,$R$20:$R$47,_xlfn.XLOOKUP(G33,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>31.5</v>
+        <v>70.5</v>
       </c>
       <c r="R33" s="58" t="s">
         <v>35</v>
@@ -3416,23 +3416,23 @@
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>Tofterøy</v>
+        <v>Ebbesvika</v>
       </c>
       <c r="C34" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0525099999999998</v>
+        <v>5.1401279999999998</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.185890000000001</v>
+        <v>60.336067999999997</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" ref="E34" ca="1" si="23">C34*111.021</f>
-        <v>560.93471270999999</v>
+        <v>570.662150688</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" ref="F34" ca="1" si="24">D34*111.021</f>
-        <v>6681.8976936899999</v>
+        <v>6698.5706054279999</v>
       </c>
       <c r="G34" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="M34" s="3" cm="1">
         <f t="array" aca="1" ref="M34" ca="1">_xlfn.XLOOKUP(B34,$R$20:$R$47,_xlfn.XLOOKUP(G34,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="R34" s="58" t="s">
         <v>50</v>
@@ -4980,50 +4980,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B9" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K17" ca="1" si="3">H2*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -5130,50 +5130,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D4" s="4">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H4" s="6">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I4" s="63">
         <f ca="1">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -5203,50 +5203,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Foldnes</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.375988</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ref="H5:H6" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ref="I5:I6" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -5276,23 +5276,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="7"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5319,7 +5319,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -5349,23 +5349,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D7" s="4">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -5433,30 +5433,30 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ref="H8:H31" ca="1" si="12">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ref="I8:I27" ca="1" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -5477,23 +5477,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G31" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5538,43 +5538,43 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ref="B10:B31" ca="1" si="15">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
@@ -5599,50 +5599,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -5661,50 +5661,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -5725,50 +5725,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5797,30 +5797,30 @@
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -5829,23 +5829,23 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -5881,23 +5881,23 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -5933,50 +5933,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -5985,50 +5985,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F31" ca="1" si="16">C18*111.021</f>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K31" ca="1" si="17">H18*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -6037,50 +6037,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -6102,50 +6102,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -6169,50 +6169,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -6236,50 +6236,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -6309,50 +6309,50 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -6382,23 +6382,23 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kårtveit</v>
+        <v>Knappskog</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9934529999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.388651000000003</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -6425,7 +6425,7 @@
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -6456,50 +6456,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Knappskog</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -6526,50 +6526,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -6596,50 +6596,50 @@
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -6666,50 +6666,50 @@
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ref="D28:D31" ca="1" si="21">_xlfn.XLOOKUP(B28,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G28" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I28" s="63">
         <f t="shared" ref="I28:I31" ca="1" si="22">_xlfn.XLOOKUP(G28,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="3" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="R28" s="58" t="s">
         <v>47</v>
@@ -6736,23 +6736,23 @@
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G29" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="M29" s="3" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R29" s="58" t="s">
         <v>48</v>
@@ -6806,50 +6806,50 @@
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.390343000000001</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G30" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I30" s="63">
         <f t="shared" ca="1" si="22"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M30" s="3" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="R30" s="58" t="s">
         <v>34</v>
@@ -6876,23 +6876,23 @@
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Knappskog</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="21"/>
-        <v>60.354616</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G31" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="M31" s="3" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="R31" s="58" t="s">
         <v>37</v>
@@ -7926,23 +7926,23 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -7969,7 +7969,7 @@
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -7987,50 +7987,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -8048,50 +8048,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -8110,23 +8110,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8153,7 +8153,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -8194,30 +8194,30 @@
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8226,50 +8226,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -8278,43 +8278,43 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
@@ -8330,50 +8330,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8382,50 +8382,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -8434,50 +8434,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ref="J18:K27" ca="1" si="17">H18*111.021</f>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -8486,23 +8486,23 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8529,7 +8529,7 @@
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -8551,50 +8551,50 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I20" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -8618,50 +8618,50 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I21" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -8685,50 +8685,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -8758,23 +8758,23 @@
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Straume</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -8801,7 +8801,7 @@
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -8831,50 +8831,50 @@
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -8905,50 +8905,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -8975,50 +8975,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -9065,30 +9065,30 @@
       </c>
       <c r="G27" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I27" s="63">
         <f t="shared" ref="I27" ca="1" si="22">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="3" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="R27" s="58" t="s">
         <v>39</v>
@@ -10078,50 +10078,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -10159,30 +10159,30 @@
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10200,50 +10200,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.354616</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10261,50 +10261,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10322,23 +10322,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10365,7 +10365,7 @@
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -10384,50 +10384,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -10448,23 +10448,23 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10491,7 +10491,7 @@
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10500,23 +10500,23 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10543,7 +10543,7 @@
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10552,50 +10552,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -10656,50 +10656,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -10708,23 +10708,23 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>559.50231976800001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10751,7 +10751,7 @@
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -10760,50 +10760,50 @@
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Telavåg</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.261564</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>559.50231976800001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G19" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="3" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="13" t="s">
@@ -10825,23 +10825,23 @@
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G20" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10868,7 +10868,7 @@
       </c>
       <c r="M20" s="3" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R20" s="58" t="s">
         <v>25</v>
@@ -10892,23 +10892,23 @@
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G21" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10935,7 +10935,7 @@
       </c>
       <c r="M21" s="3" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="R21" s="58" t="s">
         <v>27</v>
@@ -10959,50 +10959,50 @@
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G22" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I22" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="3" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R22" s="58" t="s">
         <v>40</v>
@@ -11052,30 +11052,30 @@
       </c>
       <c r="G23" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I23" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="3" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R23" s="58" t="s">
         <v>42</v>
@@ -11125,30 +11125,30 @@
       </c>
       <c r="G24" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I24" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="3" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="R24" s="58" t="s">
         <v>44</v>
@@ -11179,50 +11179,50 @@
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G25" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I25" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="3" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="R25" s="58" t="s">
         <v>38</v>
@@ -11249,50 +11249,50 @@
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G26" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I26" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" ca="1" si="16"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="3" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="R26" s="58" t="s">
         <v>46</v>
@@ -12310,50 +12310,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -12371,50 +12371,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -12432,50 +12432,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -12493,50 +12493,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12554,50 +12554,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -12616,50 +12616,50 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -12680,50 +12680,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12784,50 +12784,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -12856,30 +12856,30 @@
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -12888,50 +12888,50 @@
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Straume</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>572.0939885250001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6702.1249427430002</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G17" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I17" s="63">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="3" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
@@ -12940,50 +12940,50 @@
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G18" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I18" s="63">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" ca="1" si="14"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="15"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="3" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.25">
@@ -14248,50 +14248,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -14370,50 +14370,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -14431,50 +14431,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -14492,50 +14492,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -14554,23 +14554,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -14597,7 +14597,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -14618,50 +14618,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="17"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14670,50 +14670,50 @@
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G14" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="63">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="8">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="3" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -14722,50 +14722,50 @@
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G15" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I15" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="3" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
@@ -14774,50 +14774,50 @@
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="18"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="20"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G16" s="3" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="63">
         <f t="shared" ca="1" si="21"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" ca="1" si="22"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="23"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="3" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
@@ -15918,23 +15918,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ref="B5:B13" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C13" ca="1" si="9">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ref="G5:G13" ca="1" si="10">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -15961,7 +15961,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -15988,23 +15988,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -16031,7 +16031,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -16058,50 +16058,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -16119,23 +16119,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.382877999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -16162,7 +16162,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -16180,50 +16180,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -16241,50 +16241,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -16302,50 +16302,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -16364,23 +16364,23 @@
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G12" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -16407,7 +16407,7 @@
       </c>
       <c r="M12" s="3" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
@@ -16428,50 +16428,50 @@
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G13" s="3" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I13" s="63">
         <f t="shared" ca="1" si="16"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J13" s="8">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="18"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="3" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17521,23 +17521,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B11" ca="1" si="4">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="5">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -17564,7 +17564,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -17591,23 +17591,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.368082999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -17634,7 +17634,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -17661,50 +17661,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -17731,23 +17731,23 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -17774,7 +17774,7 @@
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -17792,23 +17792,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -17835,7 +17835,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -17853,50 +17853,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -17914,23 +17914,23 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -17975,50 +17975,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -19103,50 +19103,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -19173,23 +19173,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Kårtveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>4.9934529999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.388651000000003</v>
+        <v>60.375988</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>554.37814551299994</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6704.4084226710002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -19216,7 +19216,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -19243,23 +19243,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -19286,7 +19286,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
